--- a/SRC/db.xlsx
+++ b/SRC/db.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1064">
   <si>
     <t>person_id</t>
   </si>
@@ -2785,6 +2785,447 @@
   </si>
   <si>
     <t>阿尔志跋绥夫</t>
+  </si>
+  <si>
+    <t>P0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba </t>
+  </si>
+  <si>
+    <t>李尧棠</t>
+  </si>
+  <si>
+    <t>Li Yaotang</t>
+  </si>
+  <si>
+    <t>巴</t>
+  </si>
+  <si>
+    <t>Baba</t>
+  </si>
+  <si>
+    <t>Corneliu</t>
+  </si>
+  <si>
+    <t>P0087</t>
+  </si>
+  <si>
+    <t>科内里</t>
+  </si>
+  <si>
+    <t>巴巴</t>
+  </si>
+  <si>
+    <t>柯尔尼留巴巴</t>
+  </si>
+  <si>
+    <t>Craiova</t>
+  </si>
+  <si>
+    <t>P0088</t>
+  </si>
+  <si>
+    <t>Babayevsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semyon </t>
+  </si>
+  <si>
+    <t>巴巴耶夫斯基</t>
+  </si>
+  <si>
+    <t>谢苗</t>
+  </si>
+  <si>
+    <t>Izium Raion</t>
+  </si>
+  <si>
+    <t>49.212145</t>
+  </si>
+  <si>
+    <t>37.266501</t>
+  </si>
+  <si>
+    <t>44.330179</t>
+  </si>
+  <si>
+    <t>23.794881</t>
+  </si>
+  <si>
+    <t>Бабаевский</t>
+  </si>
+  <si>
+    <t>Семён</t>
+  </si>
+  <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t>Bach</t>
+  </si>
+  <si>
+    <t>Johann Sebastian</t>
+  </si>
+  <si>
+    <t>巴赫</t>
+  </si>
+  <si>
+    <t>约翰·塞巴斯蒂安</t>
+  </si>
+  <si>
+    <t>Eisenach</t>
+  </si>
+  <si>
+    <t>P0090</t>
+  </si>
+  <si>
+    <t>50.979571</t>
+  </si>
+  <si>
+    <t>10.314687</t>
+  </si>
+  <si>
+    <t>Juyi</t>
+  </si>
+  <si>
+    <t>居易</t>
+  </si>
+  <si>
+    <t>Taiyuan</t>
+  </si>
+  <si>
+    <t>Balmont</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>P0091</t>
+  </si>
+  <si>
+    <t>Бальмо́нт</t>
+  </si>
+  <si>
+    <t>Константи́н</t>
+  </si>
+  <si>
+    <t>康斯坦丁</t>
+  </si>
+  <si>
+    <t>巴尔蒙特</t>
+  </si>
+  <si>
+    <t>Balzac</t>
+  </si>
+  <si>
+    <t>Honoré de</t>
+  </si>
+  <si>
+    <t>P0092</t>
+  </si>
+  <si>
+    <t>奥诺雷·德</t>
+  </si>
+  <si>
+    <t>巴尔扎克</t>
+  </si>
+  <si>
+    <t>Baudelaire</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>P0093</t>
+  </si>
+  <si>
+    <t>夏尔</t>
+  </si>
+  <si>
+    <t>波德莱尔</t>
+  </si>
+  <si>
+    <t>Beatles</t>
+  </si>
+  <si>
+    <t>I0002</t>
+  </si>
+  <si>
+    <t>P0094</t>
+  </si>
+  <si>
+    <t>Beckett</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>萨缪尔</t>
+  </si>
+  <si>
+    <t>贝克特</t>
+  </si>
+  <si>
+    <t>P0095</t>
+  </si>
+  <si>
+    <t>Beethoven</t>
+  </si>
+  <si>
+    <t>Ludwig van</t>
+  </si>
+  <si>
+    <t>貝多芬</t>
+  </si>
+  <si>
+    <t>路德維希·范</t>
+  </si>
+  <si>
+    <t>P0096</t>
+  </si>
+  <si>
+    <t>Belinsky</t>
+  </si>
+  <si>
+    <t>Vissarion</t>
+  </si>
+  <si>
+    <t>维萨里昂</t>
+  </si>
+  <si>
+    <t>别林斯基</t>
+  </si>
+  <si>
+    <t>Белинский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виссарион </t>
+  </si>
+  <si>
+    <t>P0097</t>
+  </si>
+  <si>
+    <t>Berlioz</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>埃克托</t>
+  </si>
+  <si>
+    <t>柏辽兹</t>
+  </si>
+  <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
+    <t>Eduard</t>
+  </si>
+  <si>
+    <t>P0098</t>
+  </si>
+  <si>
+    <t>伯恩施坦</t>
+  </si>
+  <si>
+    <t>爱德华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi </t>
+  </si>
+  <si>
+    <t>Ruxie</t>
+  </si>
+  <si>
+    <t>P0099</t>
+  </si>
+  <si>
+    <t>毕</t>
+  </si>
+  <si>
+    <t>汝协</t>
+  </si>
+  <si>
+    <t>毕汝谐</t>
+  </si>
+  <si>
+    <t>P0100</t>
+  </si>
+  <si>
+    <t>Bian</t>
+  </si>
+  <si>
+    <t>Zhilin</t>
+  </si>
+  <si>
+    <t>Blake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">William </t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Boccaccio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni </t>
+  </si>
+  <si>
+    <t>Brahms</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Braine</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">布
+雷
+克
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄
+伽
+丘
+</t>
+  </si>
+  <si>
+    <t>勃拉姆斯</t>
+  </si>
+  <si>
+    <t>卞</t>
+  </si>
+  <si>
+    <t>之琳</t>
+  </si>
+  <si>
+    <t>P0101</t>
+  </si>
+  <si>
+    <t>威廉</t>
+  </si>
+  <si>
+    <t>P0102</t>
+  </si>
+  <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>勃莱恩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">约翰 </t>
+  </si>
+  <si>
+    <t>P0105</t>
+  </si>
+  <si>
+    <t>乔万尼</t>
+  </si>
+  <si>
+    <t>约翰内斯</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>51.507351</t>
+  </si>
+  <si>
+    <t>-0.127758</t>
+  </si>
+  <si>
+    <t>Haimen</t>
+  </si>
+  <si>
+    <t>31.871173</t>
+  </si>
+  <si>
+    <t>121.181615</t>
+  </si>
+  <si>
+    <t>Schöneberg</t>
+  </si>
+  <si>
+    <t>52.489344</t>
+  </si>
+  <si>
+    <t>13.352548</t>
+  </si>
+  <si>
+    <t>Shuya</t>
+  </si>
+  <si>
+    <t>56.851134</t>
+  </si>
+  <si>
+    <t>41.357534</t>
+  </si>
+  <si>
+    <t>Tours</t>
+  </si>
+  <si>
+    <t>47.394144</t>
+  </si>
+  <si>
+    <t>0.684840</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Foxrock</t>
+  </si>
+  <si>
+    <t>53.266889</t>
+  </si>
+  <si>
+    <t>-6.18401</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>50.737430</t>
+  </si>
+  <si>
+    <t>7.098207</t>
+  </si>
+  <si>
+    <t>Sveaborg</t>
+  </si>
+  <si>
+    <t>24.98814</t>
+  </si>
+  <si>
+    <t>La Côte-Saint-André</t>
+  </si>
+  <si>
+    <t>60.145400</t>
+  </si>
+  <si>
+    <t>5.260022</t>
+  </si>
+  <si>
+    <t>45.393794</t>
   </si>
 </sst>
 </file>
@@ -2942,7 +3383,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
@@ -3004,6 +3445,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Link" xfId="9" builtinId="8"/>
@@ -3321,11 +3772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U172"/>
+  <dimension ref="A1:U236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -10505,6 +10956,2260 @@
       <c r="U172" t="s">
         <v>407</v>
       </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="s">
+        <v>919</v>
+      </c>
+      <c r="B173" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="C173" t="s">
+        <v>150</v>
+      </c>
+      <c r="D173" t="s">
+        <v>820</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0</v>
+      </c>
+      <c r="H173" s="5">
+        <v>0</v>
+      </c>
+      <c r="I173" s="5">
+        <v>1904</v>
+      </c>
+      <c r="J173" s="5">
+        <v>2005</v>
+      </c>
+      <c r="K173" t="s">
+        <v>922</v>
+      </c>
+      <c r="L173" t="s">
+        <v>820</v>
+      </c>
+      <c r="M173" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0</v>
+      </c>
+      <c r="R173" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S173" t="s">
+        <v>407</v>
+      </c>
+      <c r="T173" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U173" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="s">
+        <v>919</v>
+      </c>
+      <c r="B174" s="49" t="s">
+        <v>923</v>
+      </c>
+      <c r="C174" t="s">
+        <v>471</v>
+      </c>
+      <c r="D174" t="s">
+        <v>796</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0</v>
+      </c>
+      <c r="H174" s="5">
+        <v>0</v>
+      </c>
+      <c r="I174" s="5">
+        <v>1904</v>
+      </c>
+      <c r="J174" s="5">
+        <v>2005</v>
+      </c>
+      <c r="K174" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="L174" t="s">
+        <v>796</v>
+      </c>
+      <c r="M174" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="O174" s="5">
+        <v>0</v>
+      </c>
+      <c r="R174" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S174" t="s">
+        <v>407</v>
+      </c>
+      <c r="T174" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U174" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" s="45" t="s">
+        <v>926</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>924</v>
+      </c>
+      <c r="C175" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="D175" t="s">
+        <v>798</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0</v>
+      </c>
+      <c r="H175" s="5">
+        <v>0</v>
+      </c>
+      <c r="I175" s="5">
+        <v>1906</v>
+      </c>
+      <c r="J175" s="5">
+        <v>1997</v>
+      </c>
+      <c r="L175" t="s">
+        <v>820</v>
+      </c>
+      <c r="M175" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0</v>
+      </c>
+      <c r="R175" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S175" t="s">
+        <v>407</v>
+      </c>
+      <c r="T175" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U175" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" s="45" t="s">
+        <v>926</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>928</v>
+      </c>
+      <c r="C176" s="45" t="s">
+        <v>927</v>
+      </c>
+      <c r="D176" t="s">
+        <v>796</v>
+      </c>
+      <c r="E176" s="5">
+        <v>0</v>
+      </c>
+      <c r="F176" s="5">
+        <v>0</v>
+      </c>
+      <c r="G176" s="5">
+        <v>0</v>
+      </c>
+      <c r="H176" s="5">
+        <v>0</v>
+      </c>
+      <c r="I176" s="5">
+        <v>1906</v>
+      </c>
+      <c r="J176" s="5">
+        <v>1997</v>
+      </c>
+      <c r="K176" t="s">
+        <v>929</v>
+      </c>
+      <c r="L176" t="s">
+        <v>796</v>
+      </c>
+      <c r="M176" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="O176" s="5">
+        <v>0</v>
+      </c>
+      <c r="R176" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S176" t="s">
+        <v>407</v>
+      </c>
+      <c r="T176" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U176" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" t="s">
+        <v>931</v>
+      </c>
+      <c r="B177" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="C177" s="50" t="s">
+        <v>933</v>
+      </c>
+      <c r="D177" t="s">
+        <v>798</v>
+      </c>
+      <c r="E177" s="5">
+        <v>0</v>
+      </c>
+      <c r="F177" s="5">
+        <v>0</v>
+      </c>
+      <c r="G177" s="5">
+        <v>0</v>
+      </c>
+      <c r="H177" s="5">
+        <v>0</v>
+      </c>
+      <c r="I177" s="5">
+        <v>1909</v>
+      </c>
+      <c r="J177" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M177" t="s">
+        <v>936</v>
+      </c>
+      <c r="O177" s="5">
+        <v>0</v>
+      </c>
+      <c r="R177" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S177" t="s">
+        <v>407</v>
+      </c>
+      <c r="T177" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U177" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="s">
+        <v>931</v>
+      </c>
+      <c r="B178" t="s">
+        <v>934</v>
+      </c>
+      <c r="C178" t="s">
+        <v>935</v>
+      </c>
+      <c r="D178" t="s">
+        <v>796</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5">
+        <v>0</v>
+      </c>
+      <c r="H178" s="5">
+        <v>0</v>
+      </c>
+      <c r="I178" s="5">
+        <v>1909</v>
+      </c>
+      <c r="J178" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M178" t="s">
+        <v>936</v>
+      </c>
+      <c r="O178" s="5">
+        <v>0</v>
+      </c>
+      <c r="R178" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S178" t="s">
+        <v>407</v>
+      </c>
+      <c r="T178" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U178" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="s">
+        <v>931</v>
+      </c>
+      <c r="B179" t="s">
+        <v>941</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="D179" t="s">
+        <v>815</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0</v>
+      </c>
+      <c r="F179" s="5">
+        <v>0</v>
+      </c>
+      <c r="G179" s="5">
+        <v>0</v>
+      </c>
+      <c r="H179" s="5">
+        <v>0</v>
+      </c>
+      <c r="I179" s="5">
+        <v>1909</v>
+      </c>
+      <c r="J179" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M179" t="s">
+        <v>936</v>
+      </c>
+      <c r="O179" s="5">
+        <v>0</v>
+      </c>
+      <c r="R179" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S179" t="s">
+        <v>407</v>
+      </c>
+      <c r="T179" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U179" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="s">
+        <v>943</v>
+      </c>
+      <c r="B180" t="s">
+        <v>944</v>
+      </c>
+      <c r="C180" t="s">
+        <v>945</v>
+      </c>
+      <c r="D180" t="s">
+        <v>798</v>
+      </c>
+      <c r="E180" s="5">
+        <v>0</v>
+      </c>
+      <c r="F180" s="5">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5">
+        <v>0</v>
+      </c>
+      <c r="H180" s="5">
+        <v>0</v>
+      </c>
+      <c r="I180" s="5">
+        <v>1685</v>
+      </c>
+      <c r="J180" s="5">
+        <v>1750</v>
+      </c>
+      <c r="M180" t="s">
+        <v>948</v>
+      </c>
+      <c r="O180" s="5">
+        <v>0</v>
+      </c>
+      <c r="R180" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S180" t="s">
+        <v>407</v>
+      </c>
+      <c r="T180" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U180" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="s">
+        <v>943</v>
+      </c>
+      <c r="B181" s="50" t="s">
+        <v>946</v>
+      </c>
+      <c r="C181" t="s">
+        <v>947</v>
+      </c>
+      <c r="D181" t="s">
+        <v>796</v>
+      </c>
+      <c r="E181" s="5">
+        <v>0</v>
+      </c>
+      <c r="F181" s="5">
+        <v>0</v>
+      </c>
+      <c r="G181" s="5">
+        <v>0</v>
+      </c>
+      <c r="H181" s="5">
+        <v>0</v>
+      </c>
+      <c r="I181" s="5">
+        <v>1685</v>
+      </c>
+      <c r="J181" s="5">
+        <v>1750</v>
+      </c>
+      <c r="M181" t="s">
+        <v>948</v>
+      </c>
+      <c r="O181" s="5">
+        <v>0</v>
+      </c>
+      <c r="R181" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S181" t="s">
+        <v>407</v>
+      </c>
+      <c r="T181" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U181" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>949</v>
+      </c>
+      <c r="B182" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="D182" t="s">
+        <v>798</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0</v>
+      </c>
+      <c r="F182" s="5">
+        <v>0</v>
+      </c>
+      <c r="G182" s="5">
+        <v>0</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0</v>
+      </c>
+      <c r="I182" s="5">
+        <v>772</v>
+      </c>
+      <c r="J182" s="5">
+        <v>846</v>
+      </c>
+      <c r="M182" t="s">
+        <v>954</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0</v>
+      </c>
+      <c r="R182" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S182" t="s">
+        <v>407</v>
+      </c>
+      <c r="T182" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U182" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>949</v>
+      </c>
+      <c r="B183" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="C183" t="s">
+        <v>953</v>
+      </c>
+      <c r="D183" t="s">
+        <v>796</v>
+      </c>
+      <c r="E183" s="5">
+        <v>0</v>
+      </c>
+      <c r="F183" s="5">
+        <v>0</v>
+      </c>
+      <c r="G183" s="5">
+        <v>0</v>
+      </c>
+      <c r="H183" s="5">
+        <v>0</v>
+      </c>
+      <c r="I183" s="5">
+        <v>772</v>
+      </c>
+      <c r="J183" s="5">
+        <v>846</v>
+      </c>
+      <c r="M183" t="s">
+        <v>954</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0</v>
+      </c>
+      <c r="R183" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S183" t="s">
+        <v>407</v>
+      </c>
+      <c r="T183" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U183" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>957</v>
+      </c>
+      <c r="B184" s="50" t="s">
+        <v>955</v>
+      </c>
+      <c r="C184" s="50" t="s">
+        <v>956</v>
+      </c>
+      <c r="D184" t="s">
+        <v>798</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0</v>
+      </c>
+      <c r="F184" s="5">
+        <v>0</v>
+      </c>
+      <c r="G184" s="5">
+        <v>0</v>
+      </c>
+      <c r="H184" s="5">
+        <v>0</v>
+      </c>
+      <c r="I184" s="5">
+        <v>1876</v>
+      </c>
+      <c r="J184" s="5">
+        <v>1942</v>
+      </c>
+      <c r="M184" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O184" s="5">
+        <v>0</v>
+      </c>
+      <c r="R184" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S184" t="s">
+        <v>407</v>
+      </c>
+      <c r="T184" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U184" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>957</v>
+      </c>
+      <c r="B185" s="52" t="s">
+        <v>961</v>
+      </c>
+      <c r="C185" t="s">
+        <v>960</v>
+      </c>
+      <c r="D185" t="s">
+        <v>796</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>1876</v>
+      </c>
+      <c r="J185" s="5">
+        <v>1942</v>
+      </c>
+      <c r="M185" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O185" s="5">
+        <v>0</v>
+      </c>
+      <c r="R185" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S185" t="s">
+        <v>407</v>
+      </c>
+      <c r="T185" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U185" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>957</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="D186" t="s">
+        <v>815</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
+        <v>0</v>
+      </c>
+      <c r="H186" s="5">
+        <v>0</v>
+      </c>
+      <c r="I186" s="5">
+        <v>1876</v>
+      </c>
+      <c r="J186" s="5">
+        <v>1942</v>
+      </c>
+      <c r="M186" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O186" s="5">
+        <v>0</v>
+      </c>
+      <c r="R186" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S186" t="s">
+        <v>407</v>
+      </c>
+      <c r="T186" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U186" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>964</v>
+      </c>
+      <c r="B187" s="50" t="s">
+        <v>962</v>
+      </c>
+      <c r="C187" s="50" t="s">
+        <v>963</v>
+      </c>
+      <c r="D187" t="s">
+        <v>798</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <v>0</v>
+      </c>
+      <c r="G187" s="5">
+        <v>0</v>
+      </c>
+      <c r="H187" s="5">
+        <v>0</v>
+      </c>
+      <c r="I187" s="5">
+        <v>1799</v>
+      </c>
+      <c r="J187" s="5">
+        <v>1850</v>
+      </c>
+      <c r="M187" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O187" s="5">
+        <v>0</v>
+      </c>
+      <c r="R187" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S187" t="s">
+        <v>407</v>
+      </c>
+      <c r="T187" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U187" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>964</v>
+      </c>
+      <c r="B188" s="52" t="s">
+        <v>966</v>
+      </c>
+      <c r="C188" t="s">
+        <v>965</v>
+      </c>
+      <c r="D188" t="s">
+        <v>796</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0</v>
+      </c>
+      <c r="F188" s="5">
+        <v>0</v>
+      </c>
+      <c r="G188" s="5">
+        <v>0</v>
+      </c>
+      <c r="H188" s="5">
+        <v>0</v>
+      </c>
+      <c r="I188" s="5">
+        <v>1799</v>
+      </c>
+      <c r="J188" s="5">
+        <v>1850</v>
+      </c>
+      <c r="M188" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O188" s="5">
+        <v>0</v>
+      </c>
+      <c r="R188" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S188" t="s">
+        <v>407</v>
+      </c>
+      <c r="T188" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U188" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>969</v>
+      </c>
+      <c r="B189" s="50" t="s">
+        <v>967</v>
+      </c>
+      <c r="C189" s="50" t="s">
+        <v>968</v>
+      </c>
+      <c r="D189" t="s">
+        <v>798</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0</v>
+      </c>
+      <c r="F189" s="5">
+        <v>0</v>
+      </c>
+      <c r="G189" s="5">
+        <v>0</v>
+      </c>
+      <c r="H189" s="5">
+        <v>0</v>
+      </c>
+      <c r="I189" s="5">
+        <v>1821</v>
+      </c>
+      <c r="J189" s="5">
+        <v>1867</v>
+      </c>
+      <c r="M189" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O189" s="5">
+        <v>0</v>
+      </c>
+      <c r="R189" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S189" t="s">
+        <v>407</v>
+      </c>
+      <c r="T189" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U189" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>969</v>
+      </c>
+      <c r="B190" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="C190" t="s">
+        <v>970</v>
+      </c>
+      <c r="D190" t="s">
+        <v>796</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0</v>
+      </c>
+      <c r="F190" s="5">
+        <v>0</v>
+      </c>
+      <c r="G190" s="5">
+        <v>0</v>
+      </c>
+      <c r="H190" s="5">
+        <v>0</v>
+      </c>
+      <c r="I190" s="5">
+        <v>1821</v>
+      </c>
+      <c r="J190" s="5">
+        <v>1867</v>
+      </c>
+      <c r="K190" s="5"/>
+      <c r="M190" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O190" s="5">
+        <v>0</v>
+      </c>
+      <c r="R190" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S190" t="s">
+        <v>407</v>
+      </c>
+      <c r="T190" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U190" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>974</v>
+      </c>
+      <c r="B191" s="52" t="s">
+        <v>975</v>
+      </c>
+      <c r="C191" t="s">
+        <v>976</v>
+      </c>
+      <c r="D191" t="s">
+        <v>798</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0</v>
+      </c>
+      <c r="F191" s="5">
+        <v>0</v>
+      </c>
+      <c r="G191" s="5">
+        <v>0</v>
+      </c>
+      <c r="H191" s="5">
+        <v>0</v>
+      </c>
+      <c r="I191" s="5">
+        <v>1906</v>
+      </c>
+      <c r="J191" s="5">
+        <v>1989</v>
+      </c>
+      <c r="M191" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O191" s="5">
+        <v>0</v>
+      </c>
+      <c r="R191" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S191" t="s">
+        <v>407</v>
+      </c>
+      <c r="T191" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U191" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>974</v>
+      </c>
+      <c r="B192" s="52" t="s">
+        <v>978</v>
+      </c>
+      <c r="C192" t="s">
+        <v>977</v>
+      </c>
+      <c r="D192" t="s">
+        <v>796</v>
+      </c>
+      <c r="E192" s="5">
+        <v>0</v>
+      </c>
+      <c r="F192" s="5">
+        <v>0</v>
+      </c>
+      <c r="G192" s="5">
+        <v>0</v>
+      </c>
+      <c r="H192" s="5">
+        <v>0</v>
+      </c>
+      <c r="I192" s="5">
+        <v>1906</v>
+      </c>
+      <c r="J192" s="5">
+        <v>1989</v>
+      </c>
+      <c r="M192" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O192" s="5">
+        <v>0</v>
+      </c>
+      <c r="R192" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S192" t="s">
+        <v>407</v>
+      </c>
+      <c r="T192" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U192" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>979</v>
+      </c>
+      <c r="B193" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="C193" s="47" t="s">
+        <v>981</v>
+      </c>
+      <c r="D193" t="s">
+        <v>798</v>
+      </c>
+      <c r="E193" s="5">
+        <v>0</v>
+      </c>
+      <c r="F193" s="5">
+        <v>0</v>
+      </c>
+      <c r="G193" s="5">
+        <v>0</v>
+      </c>
+      <c r="H193" s="5">
+        <v>0</v>
+      </c>
+      <c r="I193" s="5">
+        <v>1770</v>
+      </c>
+      <c r="J193" s="5">
+        <v>1827</v>
+      </c>
+      <c r="M193" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O193" s="5">
+        <v>0</v>
+      </c>
+      <c r="R193" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S193" t="s">
+        <v>407</v>
+      </c>
+      <c r="T193" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U193" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>979</v>
+      </c>
+      <c r="B194" s="52" t="s">
+        <v>982</v>
+      </c>
+      <c r="C194" s="45" t="s">
+        <v>983</v>
+      </c>
+      <c r="D194" t="s">
+        <v>796</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0</v>
+      </c>
+      <c r="F194" s="5">
+        <v>0</v>
+      </c>
+      <c r="G194" s="5">
+        <v>0</v>
+      </c>
+      <c r="H194" s="5">
+        <v>0</v>
+      </c>
+      <c r="I194" s="5">
+        <v>1770</v>
+      </c>
+      <c r="J194" s="5">
+        <v>1827</v>
+      </c>
+      <c r="M194" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O194" s="5">
+        <v>0</v>
+      </c>
+      <c r="R194" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S194" t="s">
+        <v>407</v>
+      </c>
+      <c r="T194" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U194" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>984</v>
+      </c>
+      <c r="B195" s="51" t="s">
+        <v>985</v>
+      </c>
+      <c r="C195" s="51" t="s">
+        <v>986</v>
+      </c>
+      <c r="D195" t="s">
+        <v>798</v>
+      </c>
+      <c r="E195" s="5">
+        <v>0</v>
+      </c>
+      <c r="F195" s="5">
+        <v>0</v>
+      </c>
+      <c r="G195" s="5">
+        <v>0</v>
+      </c>
+      <c r="H195" s="5">
+        <v>0</v>
+      </c>
+      <c r="I195" s="5">
+        <v>1811</v>
+      </c>
+      <c r="J195" s="5">
+        <v>1848</v>
+      </c>
+      <c r="M195" s="45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O195" s="5">
+        <v>0</v>
+      </c>
+      <c r="R195" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S195" t="s">
+        <v>407</v>
+      </c>
+      <c r="T195" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U195" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>984</v>
+      </c>
+      <c r="B196" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="C196" t="s">
+        <v>987</v>
+      </c>
+      <c r="D196" t="s">
+        <v>796</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0</v>
+      </c>
+      <c r="F196" s="5">
+        <v>0</v>
+      </c>
+      <c r="G196" s="5">
+        <v>0</v>
+      </c>
+      <c r="H196" s="5">
+        <v>0</v>
+      </c>
+      <c r="I196" s="5">
+        <v>1811</v>
+      </c>
+      <c r="J196" s="5">
+        <v>1848</v>
+      </c>
+      <c r="M196" s="45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O196" s="5">
+        <v>0</v>
+      </c>
+      <c r="R196" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S196" t="s">
+        <v>407</v>
+      </c>
+      <c r="T196" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U196" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>984</v>
+      </c>
+      <c r="B197" s="46" t="s">
+        <v>989</v>
+      </c>
+      <c r="C197" s="46" t="s">
+        <v>990</v>
+      </c>
+      <c r="D197" t="s">
+        <v>815</v>
+      </c>
+      <c r="E197" s="5">
+        <v>0</v>
+      </c>
+      <c r="F197" s="5">
+        <v>0</v>
+      </c>
+      <c r="G197" s="5">
+        <v>0</v>
+      </c>
+      <c r="H197" s="5">
+        <v>0</v>
+      </c>
+      <c r="I197" s="5">
+        <v>1811</v>
+      </c>
+      <c r="J197" s="5">
+        <v>1848</v>
+      </c>
+      <c r="M197" s="45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O197" s="5">
+        <v>0</v>
+      </c>
+      <c r="R197" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S197" t="s">
+        <v>407</v>
+      </c>
+      <c r="T197" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U197" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>991</v>
+      </c>
+      <c r="B198" s="46" t="s">
+        <v>992</v>
+      </c>
+      <c r="C198" t="s">
+        <v>993</v>
+      </c>
+      <c r="D198" t="s">
+        <v>798</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0</v>
+      </c>
+      <c r="F198" s="5">
+        <v>0</v>
+      </c>
+      <c r="G198" s="5">
+        <v>0</v>
+      </c>
+      <c r="H198" s="5">
+        <v>0</v>
+      </c>
+      <c r="I198" s="5">
+        <v>1803</v>
+      </c>
+      <c r="J198" s="5">
+        <v>1869</v>
+      </c>
+      <c r="M198" s="54" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O198" s="5">
+        <v>0</v>
+      </c>
+      <c r="R198" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S198" t="s">
+        <v>407</v>
+      </c>
+      <c r="T198" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U198" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>991</v>
+      </c>
+      <c r="B199" s="46" t="s">
+        <v>995</v>
+      </c>
+      <c r="C199" s="46" t="s">
+        <v>994</v>
+      </c>
+      <c r="D199" t="s">
+        <v>796</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0</v>
+      </c>
+      <c r="F199" s="5">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5">
+        <v>0</v>
+      </c>
+      <c r="H199" s="5">
+        <v>0</v>
+      </c>
+      <c r="I199" s="5">
+        <v>1803</v>
+      </c>
+      <c r="J199" s="5">
+        <v>1869</v>
+      </c>
+      <c r="M199" s="54" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O199" s="5">
+        <v>0</v>
+      </c>
+      <c r="R199" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S199" t="s">
+        <v>407</v>
+      </c>
+      <c r="T199" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U199" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" t="s">
+        <v>998</v>
+      </c>
+      <c r="B200" s="50" t="s">
+        <v>996</v>
+      </c>
+      <c r="C200" s="50" t="s">
+        <v>997</v>
+      </c>
+      <c r="D200" t="s">
+        <v>798</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0</v>
+      </c>
+      <c r="F200" s="5">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5">
+        <v>0</v>
+      </c>
+      <c r="H200" s="5">
+        <v>0</v>
+      </c>
+      <c r="I200" s="50">
+        <v>1850</v>
+      </c>
+      <c r="J200">
+        <v>1932</v>
+      </c>
+      <c r="M200" s="45" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O200" s="5">
+        <v>0</v>
+      </c>
+      <c r="R200" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S200" t="s">
+        <v>407</v>
+      </c>
+      <c r="T200" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" t="s">
+        <v>998</v>
+      </c>
+      <c r="B201" s="52" t="s">
+        <v>999</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D201" t="s">
+        <v>796</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0</v>
+      </c>
+      <c r="F201" s="5">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5">
+        <v>0</v>
+      </c>
+      <c r="H201" s="5">
+        <v>0</v>
+      </c>
+      <c r="I201" s="50">
+        <v>1850</v>
+      </c>
+      <c r="J201">
+        <v>1932</v>
+      </c>
+      <c r="K201" t="s">
+        <v>999</v>
+      </c>
+      <c r="L201" t="s">
+        <v>796</v>
+      </c>
+      <c r="M201" s="45" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O201" s="5">
+        <v>0</v>
+      </c>
+      <c r="R201" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S201" t="s">
+        <v>407</v>
+      </c>
+      <c r="T201" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U201" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B202" s="47" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C202" s="47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D202" t="s">
+        <v>798</v>
+      </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="M202" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="O202" s="5"/>
+      <c r="R202" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S202" t="s">
+        <v>407</v>
+      </c>
+      <c r="T202" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U202" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B203" s="50" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D203" t="s">
+        <v>796</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="K203" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L203" t="s">
+        <v>796</v>
+      </c>
+      <c r="M203" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="O203" s="5"/>
+      <c r="R203" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S203" t="s">
+        <v>407</v>
+      </c>
+      <c r="T203" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U203" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B204" s="50" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C204" s="50" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D204" t="s">
+        <v>798</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0</v>
+      </c>
+      <c r="F204" s="5">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5">
+        <v>0</v>
+      </c>
+      <c r="H204" s="5">
+        <v>0</v>
+      </c>
+      <c r="I204" s="52">
+        <v>1910</v>
+      </c>
+      <c r="J204" s="52">
+        <v>2000</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O204" s="5">
+        <v>0</v>
+      </c>
+      <c r="R204" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S204" t="s">
+        <v>407</v>
+      </c>
+      <c r="T204" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B205" s="50" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D205" t="s">
+        <v>796</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0</v>
+      </c>
+      <c r="F205" s="5">
+        <v>0</v>
+      </c>
+      <c r="G205" s="5">
+        <v>0</v>
+      </c>
+      <c r="H205" s="5">
+        <v>0</v>
+      </c>
+      <c r="I205" s="52">
+        <v>1910</v>
+      </c>
+      <c r="J205" s="52">
+        <v>2000</v>
+      </c>
+      <c r="M205" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O205" s="5">
+        <v>0</v>
+      </c>
+      <c r="R205" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S205" t="s">
+        <v>407</v>
+      </c>
+      <c r="T205" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U205" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B206" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C206" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D206" t="s">
+        <v>798</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0</v>
+      </c>
+      <c r="F206" s="5">
+        <v>0</v>
+      </c>
+      <c r="G206" s="5">
+        <v>0</v>
+      </c>
+      <c r="H206" s="5">
+        <v>0</v>
+      </c>
+      <c r="I206" s="52">
+        <v>1757</v>
+      </c>
+      <c r="J206" s="52">
+        <v>1827</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O206" s="5">
+        <v>0</v>
+      </c>
+      <c r="R206" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S206" t="s">
+        <v>407</v>
+      </c>
+      <c r="T206" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U206" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B207" s="50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D207" t="s">
+        <v>796</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0</v>
+      </c>
+      <c r="F207" s="5">
+        <v>0</v>
+      </c>
+      <c r="G207" s="5">
+        <v>0</v>
+      </c>
+      <c r="H207" s="5">
+        <v>0</v>
+      </c>
+      <c r="I207" s="52">
+        <v>1757</v>
+      </c>
+      <c r="J207" s="52">
+        <v>1827</v>
+      </c>
+      <c r="K207" s="50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L207" t="s">
+        <v>796</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O207" s="5">
+        <v>0</v>
+      </c>
+      <c r="R207" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S207" t="s">
+        <v>407</v>
+      </c>
+      <c r="T207" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U207" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="45" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B208" s="47" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C208" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D208" t="s">
+        <v>798</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="52">
+        <v>1956</v>
+      </c>
+      <c r="L208" s="50"/>
+      <c r="O208" s="5"/>
+      <c r="R208" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S208" t="s">
+        <v>407</v>
+      </c>
+      <c r="T208" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U208" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="45" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C209" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="D209" t="s">
+        <v>796</v>
+      </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="52">
+        <v>1956</v>
+      </c>
+      <c r="L209" s="50"/>
+      <c r="O209" s="5"/>
+      <c r="R209" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S209" t="s">
+        <v>407</v>
+      </c>
+      <c r="T209" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U209" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B210" s="50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C210" s="50" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D210" t="s">
+        <v>798</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0</v>
+      </c>
+      <c r="F210" s="5">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5">
+        <v>0</v>
+      </c>
+      <c r="H210" s="5">
+        <v>0</v>
+      </c>
+      <c r="I210" s="50">
+        <v>1313</v>
+      </c>
+      <c r="J210" s="50">
+        <v>1375</v>
+      </c>
+      <c r="K210" s="50"/>
+      <c r="L210" s="50"/>
+      <c r="O210" s="5">
+        <v>0</v>
+      </c>
+      <c r="R210" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S210" t="s">
+        <v>407</v>
+      </c>
+      <c r="T210" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U210" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B211" s="50" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D211" t="s">
+        <v>796</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0</v>
+      </c>
+      <c r="F211" s="5">
+        <v>0</v>
+      </c>
+      <c r="G211" s="5">
+        <v>0</v>
+      </c>
+      <c r="H211" s="5">
+        <v>0</v>
+      </c>
+      <c r="I211" s="50">
+        <v>1313</v>
+      </c>
+      <c r="J211" s="50">
+        <v>1375</v>
+      </c>
+      <c r="L211" s="50"/>
+      <c r="O211" s="5">
+        <v>0</v>
+      </c>
+      <c r="R211" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S211" t="s">
+        <v>407</v>
+      </c>
+      <c r="T211" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U211" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B212" s="50" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C212" s="50" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D212" t="s">
+        <v>798</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0</v>
+      </c>
+      <c r="F212" s="5">
+        <v>0</v>
+      </c>
+      <c r="G212" s="5">
+        <v>0</v>
+      </c>
+      <c r="H212" s="5">
+        <v>0</v>
+      </c>
+      <c r="I212" s="50">
+        <v>1833</v>
+      </c>
+      <c r="J212">
+        <v>1897</v>
+      </c>
+      <c r="M212" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O212" s="5">
+        <v>0</v>
+      </c>
+      <c r="R212" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S212" t="s">
+        <v>407</v>
+      </c>
+      <c r="T212" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U212" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B213" s="50" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D213" t="s">
+        <v>796</v>
+      </c>
+      <c r="E213" s="5">
+        <v>0</v>
+      </c>
+      <c r="F213" s="5">
+        <v>0</v>
+      </c>
+      <c r="G213" s="5">
+        <v>0</v>
+      </c>
+      <c r="H213" s="5">
+        <v>0</v>
+      </c>
+      <c r="I213" s="50">
+        <v>1833</v>
+      </c>
+      <c r="J213">
+        <v>1897</v>
+      </c>
+      <c r="M213" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O213" s="5">
+        <v>0</v>
+      </c>
+      <c r="R213" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S213" t="s">
+        <v>407</v>
+      </c>
+      <c r="T213" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U213" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B214" s="50" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C214" s="50" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D214" t="s">
+        <v>798</v>
+      </c>
+      <c r="E214" s="5">
+        <v>0</v>
+      </c>
+      <c r="F214" s="5">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5">
+        <v>0</v>
+      </c>
+      <c r="H214" s="5">
+        <v>0</v>
+      </c>
+      <c r="I214" s="50">
+        <v>1922</v>
+      </c>
+      <c r="J214">
+        <v>1986</v>
+      </c>
+      <c r="M214" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O214" s="5">
+        <v>0</v>
+      </c>
+      <c r="R214" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S214" t="s">
+        <v>407</v>
+      </c>
+      <c r="T214" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U214" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B215" s="50" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D215" t="s">
+        <v>796</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0</v>
+      </c>
+      <c r="F215" s="5">
+        <v>0</v>
+      </c>
+      <c r="G215" s="5">
+        <v>0</v>
+      </c>
+      <c r="H215" s="5">
+        <v>0</v>
+      </c>
+      <c r="I215" s="50">
+        <v>1922</v>
+      </c>
+      <c r="J215">
+        <v>1986</v>
+      </c>
+      <c r="M215" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O215" s="5">
+        <v>0</v>
+      </c>
+      <c r="R215" s="4">
+        <v>42926</v>
+      </c>
+      <c r="S215" t="s">
+        <v>407</v>
+      </c>
+      <c r="T215" s="4">
+        <v>42926</v>
+      </c>
+      <c r="U215" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="O216" s="5"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="O217" s="5"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="O218" s="5"/>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" spans="5:8">
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="5:8">
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="5:8">
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" spans="5:8">
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="5:8">
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="5:8">
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="5:8">
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="5:8">
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="5:8">
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="5:8">
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="5:8">
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10760,8 +13465,8 @@
   <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -11676,111 +14381,324 @@
       <c r="A34" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="B34" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="E34" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G34" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="E35" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G35" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="B36" t="s">
+        <v>948</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="E36" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G36" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E37" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G37" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="B38" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E38" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G38" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="B39" s="48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E39" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G39" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="B40" s="53" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E40" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G40" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E41" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G41" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="B42" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E42" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="B43" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E43" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G43" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="B44" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E44" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="B45" s="54" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E45" s="22">
+        <v>42926</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G45" s="22">
+        <v>42926</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9">
@@ -11788,6 +14706,7 @@
         <v>582</v>
       </c>
       <c r="B46" s="14"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -14117,11 +17036,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:K3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -14202,6 +17121,19 @@
       </c>
       <c r="K3" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>973</v>
       </c>
     </row>
   </sheetData>
